--- a/biology/Médecine/Santepratique/Santepratique.xlsx
+++ b/biology/Médecine/Santepratique/Santepratique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santepratique.fr[1] est un portail d’information médicale et de prévention indépendant, proposé par IDS Santé, société spécialisée dans l’éducation santé au cabinet médical[2].
-Santepratique.fr[1] est destiné à la fois au grand public désireux de se documenter en matière de santé, bien-être et prévention, mais aussi aux professionnels de la santé, soucieux de recommander à leurs patients un site internet indépendant et à leur proposer une documentation pédagogique grâce aux fiches explicatives sur les troubles, les maladies ou le bien-être et la prévention, aux vidéos, aux fiches « recettes » et régimes[3].
-Pour aider les professionnels de santé dans leur mission d'éducation et d'information de leurs patients, Santepratique contient notamment une encyclopédie médicale illustrée par une bibliothèque de 220 vidéos pédagogiques, des quiz en ligne mais aussi des fiches explicatives sur les applications mobiles utiles au suivi des patients[4].
-Certifié HON, le site respecte scrupuleusement les huit principes de la charte HON, dont la transparence du financement, l’indépendance et la fiabilité du contenu, la mention claire des références utilisées et des publicités diffusées[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santepratique.fr est un portail d’information médicale et de prévention indépendant, proposé par IDS Santé, société spécialisée dans l’éducation santé au cabinet médical.
+Santepratique.fr est destiné à la fois au grand public désireux de se documenter en matière de santé, bien-être et prévention, mais aussi aux professionnels de la santé, soucieux de recommander à leurs patients un site internet indépendant et à leur proposer une documentation pédagogique grâce aux fiches explicatives sur les troubles, les maladies ou le bien-être et la prévention, aux vidéos, aux fiches « recettes » et régimes.
+Pour aider les professionnels de santé dans leur mission d'éducation et d'information de leurs patients, Santepratique contient notamment une encyclopédie médicale illustrée par une bibliothèque de 220 vidéos pédagogiques, des quiz en ligne mais aussi des fiches explicatives sur les applications mobiles utiles au suivi des patients.
+Certifié HON, le site respecte scrupuleusement les huit principes de la charte HON, dont la transparence du financement, l’indépendance et la fiabilité du contenu, la mention claire des références utilisées et des publicités diffusées.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Vocation du site</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Santepratique soutient les professionnels de santé dans leur rôle d'éducateur santé en favorisant l’information et l’éducation de leurs patients, et la prévention santé.
-Les ambitions de Santepratique sont de sensibiliser le grand public aux problématiques de santé, d’accompagner le patient dans la préparation de sa consultation, mais aussi de l’aider à suivre une bonne hygiène de vie et à renforcer sa vigilance dans le domaine de l’observance thérapeutique[2]
+Les ambitions de Santepratique sont de sensibiliser le grand public aux problématiques de santé, d’accompagner le patient dans la préparation de sa consultation, mais aussi de l’aider à suivre une bonne hygiène de vie et à renforcer sa vigilance dans le domaine de l’observance thérapeutique
 .
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Contenu des rubriques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Santepratique.fr propose plusieurs rubriques consacrées à la santé, au bien-être et à la prévention.
 Un onglet « actualité » propose des « dossiers », articles sur un thème lié à la santé, des « zooms », articles sur une actualité. Une sous-rubrique « Académie de médecine » renvoie aux  dossiers et aux communications de celle-ci.
@@ -590,14 +606,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un respect des principes de la Haute Autorité de Santé (HAS)
-Santepratique a été conçu à partir des principes de la Haute Autorité de Santé dans le cadre de la certification HON des sites internet santé[5].
-Une information indépendante
-Le contenu du site est rédigé par une équipe composée de médecins, pharmaciens, journalistes santé totalement indépendants, dans le plus strict respect de l'EBMet sous le contrôle du Dr Sophie Duméry[6].
-Par ailleurs, certaines rubriques ont été confiées à des partenaires tels que l’ARC (Association pour la recherche contre le Cancer), l’AFD (Association française des Diabétiques), Asthme &amp; Allergies, l’ARSEP Fondation (Fondation pour l’Aide à la recherche sur la Sclérose En Plaques), l’Association France Alzheimer, l’Académie Nationale de Médecine, le CISS (Collectif Interrassociatif Sur la Santé), ou encore Santé Voyages[7].
-Une absence de consultation médicale en ligne
-Santepratique exclut toute forme de consultation médicale en ligne : seul un examen clinique pratiqué par un professionnel de santé est en mesure de proposer un diagnostic et un traitement.
-Santepratique.fr ne se substitue aucunement au rôle des professionnels de santé[8].
+          <t>Un respect des principes de la Haute Autorité de Santé (HAS)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santepratique a été conçu à partir des principes de la Haute Autorité de Santé dans le cadre de la certification HON des sites internet santé.
 </t>
         </is>
       </c>
@@ -623,12 +638,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Caractère publicitaire</t>
+          <t>Caractère éthique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme spécifié dans la charte HON, la publicité présente sur le site s’articule sous forme de bandeaux ou de pavés publicitaires insérés sur plusieurs pages et portant la mention « publicité » ou sur des pages de publi-communiqués, clairement étiquetés comme tels[5].
+          <t>Une information indépendante</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le contenu du site est rédigé par une équipe composée de médecins, pharmaciens, journalistes santé totalement indépendants, dans le plus strict respect de l'EBMet sous le contrôle du Dr Sophie Duméry.
+Par ailleurs, certaines rubriques ont été confiées à des partenaires tels que l’ARC (Association pour la recherche contre le Cancer), l’AFD (Association française des Diabétiques), Asthme &amp; Allergies, l’ARSEP Fondation (Fondation pour l’Aide à la recherche sur la Sclérose En Plaques), l’Association France Alzheimer, l’Académie Nationale de Médecine, le CISS (Collectif Interrassociatif Sur la Santé), ou encore Santé Voyages.
 </t>
         </is>
       </c>
@@ -654,12 +676,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Partenaires</t>
+          <t>Caractère éthique</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santepratique a été élaboré grâce au soutien de plusieurs partenaires dont l’Association Française des Diabétiques, l’Académie Nationale de Médecine, le CISS (Collectif Interrassociatif Sur la Santé), et d’autres organismes comme la Croix Rouge. Le contenu émanant de ces institutions ou organismes est clairement identifié (Se référer aux sources des articles)[4].
+          <t>Une absence de consultation médicale en ligne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santepratique exclut toute forme de consultation médicale en ligne : seul un examen clinique pratiqué par un professionnel de santé est en mesure de proposer un diagnostic et un traitement.
+Santepratique.fr ne se substitue aucunement au rôle des professionnels de santé.
 </t>
         </is>
       </c>
@@ -685,10 +714,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Caractère publicitaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme spécifié dans la charte HON, la publicité présente sur le site s’articule sous forme de bandeaux ou de pavés publicitaires insérés sur plusieurs pages et portant la mention « publicité » ou sur des pages de publi-communiqués, clairement étiquetés comme tels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Santepratique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santepratique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Partenaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santepratique a été élaboré grâce au soutien de plusieurs partenaires dont l’Association Française des Diabétiques, l’Académie Nationale de Médecine, le CISS (Collectif Interrassociatif Sur la Santé), et d’autres organismes comme la Croix Rouge. Le contenu émanant de ces institutions ou organismes est clairement identifié (Se référer aux sources des articles).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Santepratique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santepratique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Santepratique-pro.fr : site destiné aux professionnels de la santé
 IDS Santé : Les médias de l'éducation santé
